--- a/data/escapement/prelim-inseason/EscEstSppHeader_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstSppHeader_area20-22_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstSppHeader"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstSppHeader">'EscEstSppHeader'!$A$1:$AN$3</definedName>
+    <definedName name="EscEstSppHeader">'EscEstSppHeader'!$A$1:$AN$10</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D2" s="1">
@@ -593,52 +593,52 @@
         <v>75</v>
       </c>
       <c r="K2" s="0">
-        <v>41946.5</v>
+        <v>7208</v>
       </c>
       <c r="L2" s="0">
-        <v>1678</v>
+        <v>288</v>
       </c>
       <c r="M2" s="0">
-        <v>2796</v>
+        <v>481</v>
       </c>
       <c r="N2" s="0">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>46717.2222162618</v>
+        <v>12988.5411765841</v>
       </c>
       <c r="R2" s="0">
-        <v>1869</v>
+        <v>520</v>
       </c>
       <c r="S2" s="0">
-        <v>3114</v>
+        <v>866</v>
       </c>
       <c r="T2" s="0">
-        <v>953.333333333333</v>
+        <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="W2" s="0">
-        <v>2170</v>
+        <v>370</v>
       </c>
       <c r="X2" s="0">
-        <v>2390</v>
+        <v>685</v>
       </c>
       <c r="Y2" s="0">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="0">
         <v>2</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>2390</v>
+        <v>685</v>
       </c>
       <c r="AE2" s="0">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="0">
         <v>0</v>
@@ -671,14 +671,14 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="0">
         <v>-1</v>
       </c>
       <c r="AM2" s="0" t="inlineStr">
         <is>
-          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Set % pop to 30% for Chinook on Oct 25 survey to expand for potential fish missed in upper SJ - based on Oct 2 survey that had ~67% of live chinook noted in the upper river. Conditions mostly good for all surveys so set OE to 80-90% (final survey at 80% as water levels were higher). Used PL+D expanded estimate.</t>
+          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Set % pop to 60% for Chum on Oct 25 survey to expand for potential fish missed in upper SJ - based on Oct 10 survey that had ~50% of live Chum noted in the upper river.Increased the precentage in the lower reaches due to the high water event that may have displaced spawned out Chum to the lower sgements. Conditions mostly good for all surveys so set OE to 80-90%. Used PL+D expanded estimate. Type-4 as timing was good for Chum. Did not subtract any fish from tribs this year as most were spawning on the peak count date, and holding fish were only in the upper sections.</t>
         </is>
       </c>
       <c r="AN2" s="0" t="b">
@@ -696,7 +696,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D3" s="1">
@@ -718,73 +718,73 @@
         <v>25</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K3" s="0">
-        <v>0</v>
+        <v>41946.5</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>2796</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="0">
-        <v>0</v>
+        <v>46717.2222162618</v>
       </c>
       <c r="R3" s="0">
-        <v>0</v>
+        <v>1869</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
+        <v>3114</v>
       </c>
       <c r="T3" s="0">
-        <v>0</v>
+        <v>953.333333333333</v>
       </c>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V3" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W3" s="0">
-        <v>0</v>
+        <v>2170</v>
       </c>
       <c r="X3" s="0">
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="Y3" s="0">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="AE3" s="0">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="AF3" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -799,12 +799,898 @@
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL3" s="0">
         <v>-1</v>
       </c>
+      <c r="AM3" s="0" t="inlineStr">
+        <is>
+          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Set % pop to 30% for Chinook on Oct 25 survey to expand for potential fish missed in upper SJ - based on Oct 2 survey that had ~67% of live chinook noted in the upper river. Conditions mostly good for all surveys so set OE to 80-90% (final survey at 80% as water levels were higher). Used PL+D expanded estimate. Type-4 as timing was good for Chinook. Did not subtract any fish from tribs this year as most were spawning on the peak count date, and holding fish were only in the upper sections.</t>
+        </is>
+      </c>
       <c r="AN3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B4" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D4" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F4" s="0">
+        <v>15</v>
+      </c>
+      <c r="G4" s="0">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0">
+        <v>25</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0">
+        <v>0</v>
+      </c>
+      <c r="V4" s="0">
+        <v>0</v>
+      </c>
+      <c r="W4" s="0">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B5" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D5" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F5" s="0">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0">
+        <v>25</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0">
+        <v>0</v>
+      </c>
+      <c r="V5" s="0">
+        <v>0</v>
+      </c>
+      <c r="W5" s="0">
+        <v>0</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B6" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D6" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F6" s="0">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0">
+        <v>25</v>
+      </c>
+      <c r="H6" s="0">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0">
+        <v>25</v>
+      </c>
+      <c r="J6" s="0">
+        <v>75</v>
+      </c>
+      <c r="K6" s="0">
+        <v>337.5</v>
+      </c>
+      <c r="L6" s="0">
+        <v>14</v>
+      </c>
+      <c r="M6" s="0">
+        <v>22</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>2812.4998882413</v>
+      </c>
+      <c r="R6" s="0">
+        <v>112</v>
+      </c>
+      <c r="S6" s="0">
+        <v>187</v>
+      </c>
+      <c r="T6" s="0">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0">
+        <v>0</v>
+      </c>
+      <c r="V6" s="0">
+        <v>0</v>
+      </c>
+      <c r="W6" s="0">
+        <v>10</v>
+      </c>
+      <c r="X6" s="0">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>80</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>6</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AM6" s="0" t="inlineStr">
+        <is>
+          <t>One snorkel survey on Oct 24. Water was normal to above normal with slightly turbid water in some areas. Gave it a good OE of 80%. Type-6 resolution as only one swim and quite late for Chinook. Percent population was reduced to 15% because this survey was quite late for Chinook and following a flood; spawned out/dead fish were likely washed away resulting in an underrepresentation of anundance. Previous year's estimate was referenced. Downstream of SJ mainstem surevey area.</t>
+        </is>
+      </c>
+      <c r="AN6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B7" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D7" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F7" s="0">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0">
+        <v>25</v>
+      </c>
+      <c r="J7" s="0">
+        <v>75</v>
+      </c>
+      <c r="K7" s="0">
+        <v>1912.5</v>
+      </c>
+      <c r="L7" s="0">
+        <v>76</v>
+      </c>
+      <c r="M7" s="0">
+        <v>128</v>
+      </c>
+      <c r="N7" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="O7" s="0">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>2013.15789473684</v>
+      </c>
+      <c r="R7" s="0">
+        <v>81</v>
+      </c>
+      <c r="S7" s="0">
+        <v>134</v>
+      </c>
+      <c r="T7" s="0">
+        <v>39.4736842105263</v>
+      </c>
+      <c r="U7" s="0">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0">
+        <v>3</v>
+      </c>
+      <c r="W7" s="0">
+        <v>51</v>
+      </c>
+      <c r="X7" s="0">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>54</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AM7" s="0" t="inlineStr">
+        <is>
+          <t>One snorkel survey on Oct 7. Water was very low and clear so gave it a very high OE of 95%. Type-5 resolution as only one swim and slightly on the later side for Chinook. Not subtracted from SJ mainstem this year - see San Juan comments.</t>
+        </is>
+      </c>
+      <c r="AN7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B8" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D8" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F8" s="0">
+        <v>15</v>
+      </c>
+      <c r="G8" s="0">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0">
+        <v>15</v>
+      </c>
+      <c r="I8" s="0">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0">
+        <v>75</v>
+      </c>
+      <c r="K8" s="0">
+        <v>562.5</v>
+      </c>
+      <c r="L8" s="0">
+        <v>22</v>
+      </c>
+      <c r="M8" s="0">
+        <v>38</v>
+      </c>
+      <c r="N8" s="0">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>592.105263157895</v>
+      </c>
+      <c r="R8" s="0">
+        <v>24</v>
+      </c>
+      <c r="S8" s="0">
+        <v>39</v>
+      </c>
+      <c r="T8" s="0">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0">
+        <v>0</v>
+      </c>
+      <c r="V8" s="0">
+        <v>0</v>
+      </c>
+      <c r="W8" s="0">
+        <v>15</v>
+      </c>
+      <c r="X8" s="0">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="0">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AM8" s="0" t="inlineStr">
+        <is>
+          <t>One snorkel survey on Oct 9. Water was very low and clear so gave it a very high OE of 95%. Type-5 resolution as only one swim and slightly on the later side for Chinook. Not subtracted from SJ mainstem this year - see San Juan comments.</t>
+        </is>
+      </c>
+      <c r="AN8" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B9" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D9" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F9" s="0">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0">
+        <v>25</v>
+      </c>
+      <c r="J9" s="0">
+        <v>75</v>
+      </c>
+      <c r="K9" s="0">
+        <v>2700</v>
+      </c>
+      <c r="L9" s="0">
+        <v>108</v>
+      </c>
+      <c r="M9" s="0">
+        <v>180</v>
+      </c>
+      <c r="N9" s="0">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>3000</v>
+      </c>
+      <c r="R9" s="0">
+        <v>120</v>
+      </c>
+      <c r="S9" s="0">
+        <v>200</v>
+      </c>
+      <c r="T9" s="0">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0">
+        <v>0</v>
+      </c>
+      <c r="V9" s="0">
+        <v>0</v>
+      </c>
+      <c r="W9" s="0">
+        <v>72</v>
+      </c>
+      <c r="X9" s="0">
+        <v>80</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="0">
+        <v>5</v>
+      </c>
+      <c r="AL9" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="0" t="inlineStr">
+        <is>
+          <t>One snorkel survey on Oct 4. Water was very low and clear so gave it a high OE of 90%. Type-5 resolution as only one swim; however timing was good to see peak spawning Chinook. Separate system from the SJ mainstem.</t>
+        </is>
+      </c>
+      <c r="AN9" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>930-979400-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B10" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F10" s="0">
+        <v>15</v>
+      </c>
+      <c r="G10" s="0">
+        <v>25</v>
+      </c>
+      <c r="H10" s="0">
+        <v>15</v>
+      </c>
+      <c r="I10" s="0">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0">
+        <v>0</v>
+      </c>
+      <c r="W10" s="0">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN10" s="0" t="b">
         <v>0</v>
       </c>
     </row>
